--- a/data/trans_orig/P25D_R2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R2_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>37524</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20897</v>
+        <v>20608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62907</v>
+        <v>63000</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09201728353890468</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05124396957131282</v>
+        <v>0.05053589087819815</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1542631322055181</v>
+        <v>0.1544897738149756</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>25553</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15187</v>
+        <v>14900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41866</v>
+        <v>41604</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07048769867761756</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04189362120255871</v>
+        <v>0.04110077543505016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1154892310744645</v>
+        <v>0.1147659095628886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -783,19 +783,19 @@
         <v>63077</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42284</v>
+        <v>40041</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93024</v>
+        <v>91222</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08188528134879187</v>
+        <v>0.08188528134879185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05489200780865564</v>
+        <v>0.05198103056268434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1207626951426875</v>
+        <v>0.1184229274655303</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>370269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>344886</v>
+        <v>344793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>386896</v>
+        <v>387185</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9079827164610954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8457368677944818</v>
+        <v>0.8455102261850244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9487560304286872</v>
+        <v>0.9494641091218019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>194</v>
@@ -833,19 +833,19 @@
         <v>336959</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>320646</v>
+        <v>320908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347325</v>
+        <v>347612</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9295123013223825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8845107689255348</v>
+        <v>0.8852340904371115</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9581063787974411</v>
+        <v>0.9588992245649502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>354</v>
@@ -854,19 +854,19 @@
         <v>707228</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>677281</v>
+        <v>679083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>728021</v>
+        <v>730264</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9181147186512082</v>
+        <v>0.918114718651208</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8792373048573126</v>
+        <v>0.8815770725344698</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9451079921913446</v>
+        <v>0.9480189694373158</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>36776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23176</v>
+        <v>23066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55973</v>
+        <v>56297</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07732299515722513</v>
+        <v>0.07732299515722514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04872813111066305</v>
+        <v>0.04849710570957398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1176868627803231</v>
+        <v>0.1183673305309656</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -979,19 +979,19 @@
         <v>17170</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9539</v>
+        <v>9612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27525</v>
+        <v>28203</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03426562546101276</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01903772555907645</v>
+        <v>0.01918186041486161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05493015715511049</v>
+        <v>0.05628428740539278</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1000,19 +1000,19 @@
         <v>53945</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37519</v>
+        <v>38772</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74011</v>
+        <v>75466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05523281066801838</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03841391317781312</v>
+        <v>0.0396974505325128</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0757775280489804</v>
+        <v>0.07726675263736964</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>438833</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419636</v>
+        <v>419312</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452433</v>
+        <v>452543</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9226770048427748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8823131372196769</v>
+        <v>0.8816326694690344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9512718688893367</v>
+        <v>0.9515028942904259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -1050,19 +1050,19 @@
         <v>483913</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473558</v>
+        <v>472880</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491544</v>
+        <v>491471</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.965734374538987</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9450698428448894</v>
+        <v>0.9437157125946072</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9809622744409235</v>
+        <v>0.9808181395851386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>726</v>
@@ -1071,19 +1071,19 @@
         <v>922747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>902681</v>
+        <v>901226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>939173</v>
+        <v>937920</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9447671893319817</v>
+        <v>0.9447671893319816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9242224719510197</v>
+        <v>0.92273324736263</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9615860868221869</v>
+        <v>0.9603025494674871</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>19263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11789</v>
+        <v>11481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30277</v>
+        <v>30690</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0310856959890487</v>
+        <v>0.03108569598904869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01902562197079357</v>
+        <v>0.01852771200772678</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04886065317785705</v>
+        <v>0.04952793364221784</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1196,19 +1196,19 @@
         <v>8928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4671</v>
+        <v>5293</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16139</v>
+        <v>15433</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01440573541587493</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007536302890735325</v>
+        <v>0.008540280414717005</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02603976800413086</v>
+        <v>0.02490054437396271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1217,19 +1217,19 @@
         <v>28191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18637</v>
+        <v>18413</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40809</v>
+        <v>40981</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02274485702461573</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01503636294243224</v>
+        <v>0.01485619564501905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0329250147087673</v>
+        <v>0.03306407762078897</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>600396</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>589382</v>
+        <v>588969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>607870</v>
+        <v>608178</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9689143040109515</v>
+        <v>0.9689143040109514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9511393468221431</v>
+        <v>0.9504720663577827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9809743780292065</v>
+        <v>0.9814722879922735</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>831</v>
@@ -1267,19 +1267,19 @@
         <v>610859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>603648</v>
+        <v>604354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>615116</v>
+        <v>614494</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.985594264584125</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9739602319958691</v>
+        <v>0.9750994556260373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9924636971092646</v>
+        <v>0.991459719585283</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1360</v>
@@ -1288,19 +1288,19 @@
         <v>1211254</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1198636</v>
+        <v>1198464</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1220808</v>
+        <v>1221032</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9772551429753843</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9670749852912324</v>
+        <v>0.966935922379211</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9849636370575677</v>
+        <v>0.9851438043549808</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>14699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7959</v>
+        <v>8032</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23754</v>
+        <v>25510</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02115127113427858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01145186970752835</v>
+        <v>0.01155688997858226</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03417999049088875</v>
+        <v>0.03670768549630443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>12158</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7859</v>
+        <v>7475</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19203</v>
+        <v>18719</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01653073681679431</v>
+        <v>0.01653073681679432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01068599187754314</v>
+        <v>0.01016405840931125</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02610922927292383</v>
+        <v>0.02545132758212605</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -1434,19 +1434,19 @@
         <v>26857</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18428</v>
+        <v>18929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37654</v>
+        <v>38673</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01877556748001334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01288305325551363</v>
+        <v>0.01323304419015633</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02632316713595237</v>
+        <v>0.0270359339751995</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>680263</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>671208</v>
+        <v>669452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>687003</v>
+        <v>686930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9788487288657214</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9658200095091115</v>
+        <v>0.9632923145036952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9885481302924719</v>
+        <v>0.9884431100214175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1120</v>
@@ -1484,19 +1484,19 @@
         <v>723320</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>716275</v>
+        <v>716759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>727619</v>
+        <v>728003</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9834692631832054</v>
+        <v>0.9834692631832057</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9738907707270761</v>
+        <v>0.974548672417874</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9893140081224567</v>
+        <v>0.9898359415906888</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1767</v>
@@ -1505,19 +1505,19 @@
         <v>1403584</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1392787</v>
+        <v>1391768</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1412013</v>
+        <v>1411512</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9812244325199867</v>
+        <v>0.9812244325199868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9736768328640476</v>
+        <v>0.9729640660248005</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9871169467444861</v>
+        <v>0.9867669558098437</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>9461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4978</v>
+        <v>4778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18044</v>
+        <v>16993</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01557818263272362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008196408420172272</v>
+        <v>0.00786805688231124</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02970980717029407</v>
+        <v>0.02798052903388183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1630,19 +1630,19 @@
         <v>4332</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1825</v>
+        <v>1782</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8732</v>
+        <v>8450</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.007138698828182</v>
+        <v>0.007138698828182003</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003008320492246213</v>
+        <v>0.002936448199417341</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01439103507801927</v>
+        <v>0.01392634617132381</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1651,19 +1651,19 @@
         <v>13793</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8241</v>
+        <v>8716</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21417</v>
+        <v>21942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01136029861182209</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006787329711620114</v>
+        <v>0.007178515660465169</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01764015348767598</v>
+        <v>0.0180719043897009</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>597868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>589285</v>
+        <v>590336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>602351</v>
+        <v>602551</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9844218173672764</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.970290192829706</v>
+        <v>0.9720194709661174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9918035915798277</v>
+        <v>0.9921319431176887</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>992</v>
@@ -1701,19 +1701,19 @@
         <v>602462</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>598062</v>
+        <v>598344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>604969</v>
+        <v>605012</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9928613011718179</v>
+        <v>0.992861301171818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9856089649219826</v>
+        <v>0.9860736538286763</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9969916795077539</v>
+        <v>0.9970635518005827</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1643</v>
@@ -1722,19 +1722,19 @@
         <v>1200330</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1192706</v>
+        <v>1192181</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1205882</v>
+        <v>1205407</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9886397013881778</v>
+        <v>0.988639701388178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9823598465123242</v>
+        <v>0.9819280956102991</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.99321267028838</v>
+        <v>0.992821484339535</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7005</v>
+        <v>6646</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004850958420286695</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01723726085963996</v>
+        <v>0.01635297471639754</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1847,19 +1847,19 @@
         <v>3420</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1241</v>
+        <v>1291</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7483</v>
+        <v>6976</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007799264624145756</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002831051096040121</v>
+        <v>0.002944247938039617</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01706639859505862</v>
+        <v>0.01590923708902747</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1868,19 +1868,19 @@
         <v>5391</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2372</v>
+        <v>2303</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10214</v>
+        <v>10113</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.006381060395730851</v>
+        <v>0.006381060395730853</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002807486859687488</v>
+        <v>0.00272523395690468</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01208934865452713</v>
+        <v>0.0119699058781696</v>
       </c>
     </row>
     <row r="20">
@@ -1897,7 +1897,7 @@
         <v>404441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>399407</v>
+        <v>399766</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>406412</v>
@@ -1906,7 +1906,7 @@
         <v>0.9951490415797133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9827627391403614</v>
+        <v>0.9836470252836046</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>435058</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>430995</v>
+        <v>431502</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>437237</v>
+        <v>437187</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9922007353758542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9829336014049413</v>
+        <v>0.9840907629109725</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9971689489039601</v>
+        <v>0.9970557520619605</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1387</v>
@@ -1939,19 +1939,19 @@
         <v>839499</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>834676</v>
+        <v>834777</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>842518</v>
+        <v>842587</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9936189396042691</v>
+        <v>0.9936189396042693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9879106513454726</v>
+        <v>0.9880300941218303</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9971925131403125</v>
+        <v>0.9972747660430953</v>
       </c>
     </row>
     <row r="21">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2531</v>
+        <v>2341</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0008416673790761439</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005455514868912107</v>
+        <v>0.005045965471033013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1588</v>
+        <v>1966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0005044088621492352</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.002050875884604677</v>
+        <v>0.002539972720634935</v>
       </c>
     </row>
     <row r="23">
@@ -2119,7 +2119,7 @@
         <v>463547</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>461406</v>
+        <v>461596</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>463937</v>
@@ -2128,7 +2128,7 @@
         <v>0.9991583326209238</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.994544485131088</v>
+        <v>0.9949540345289669</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>773746</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>772548</v>
+        <v>772170</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>774136</v>
@@ -2149,7 +2149,7 @@
         <v>0.9994955911378507</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9979491241153955</v>
+        <v>0.9974600272793652</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         <v>119694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92460</v>
+        <v>95401</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>155686</v>
+        <v>152018</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03398502895526763</v>
+        <v>0.03398502895526764</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02625229712738709</v>
+        <v>0.02708753542960424</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04420427292151743</v>
+        <v>0.04316300226435273</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -2265,19 +2265,19 @@
         <v>71951</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55906</v>
+        <v>54082</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93034</v>
+        <v>91633</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01929981707580759</v>
+        <v>0.0192998170758076</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01499605300007515</v>
+        <v>0.01450673406588835</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02495500029838613</v>
+        <v>0.02457912788608132</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>146</v>
@@ -2286,19 +2286,19 @@
         <v>191645</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>158375</v>
+        <v>158361</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>226847</v>
+        <v>227493</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02643368445029211</v>
+        <v>0.02643368445029212</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02184478630354801</v>
+        <v>0.02184277289348843</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03128917001956389</v>
+        <v>0.0313781853938863</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>3402269</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3366277</v>
+        <v>3369945</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3429503</v>
+        <v>3426562</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9660149710447322</v>
+        <v>0.9660149710447323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9557957270784826</v>
+        <v>0.9568369977356472</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9737477028726129</v>
+        <v>0.9729124645703959</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5282</v>
@@ -2336,19 +2336,19 @@
         <v>3656119</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3635036</v>
+        <v>3636437</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3672164</v>
+        <v>3673988</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9807001829241923</v>
+        <v>0.9807001829241924</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9750449997016135</v>
+        <v>0.9754208721139187</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9850039469999249</v>
+        <v>0.9854932659341112</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8574</v>
@@ -2357,19 +2357,19 @@
         <v>7058387</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7023185</v>
+        <v>7022539</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7091657</v>
+        <v>7091671</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9735663155497079</v>
+        <v>0.9735663155497082</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9687108299804368</v>
+        <v>0.9686218146061139</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9781552136964522</v>
+        <v>0.9781572271065117</v>
       </c>
     </row>
     <row r="27">
